--- a/doc/FCU Pin Assignment.xlsx
+++ b/doc/FCU Pin Assignment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\8J2142897\Desktop\DRC-Project\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79FAF046-FE2C-4A52-9942-2886CC88BE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA615AA-8763-4864-A999-6B0D69E22FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{F01F76EB-9FC2-4E8B-BB86-0187120AFC97}"/>
+    <workbookView xWindow="-78" yWindow="0" windowWidth="11676" windowHeight="13038" xr2:uid="{F01F76EB-9FC2-4E8B-BB86-0187120AFC97}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
   <si>
     <t>Pin Number</t>
   </si>
@@ -57,6 +57,66 @@
   </si>
   <si>
     <t>Pin Type</t>
+  </si>
+  <si>
+    <t>GPIO</t>
+  </si>
+  <si>
+    <t>Pin Usage</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Net Name</t>
+  </si>
+  <si>
+    <t>Encoder 1 DP</t>
+  </si>
+  <si>
+    <t>Encoder 2 DP</t>
+  </si>
+  <si>
+    <t>Encoder 3 DP</t>
+  </si>
+  <si>
+    <t>Encoder 4 DP</t>
+  </si>
+  <si>
+    <t>Encoder 1 DN</t>
+  </si>
+  <si>
+    <t>Encoder 1 SW</t>
+  </si>
+  <si>
+    <t>Encoder 2 DN</t>
+  </si>
+  <si>
+    <t>Encoder 2 SW</t>
+  </si>
+  <si>
+    <t>Encoder 3 SW</t>
+  </si>
+  <si>
+    <t>Encoder 3 DN</t>
+  </si>
+  <si>
+    <t>Encoder 4 DN</t>
+  </si>
+  <si>
+    <t>Encoder 4 SW</t>
+  </si>
+  <si>
+    <t>MOSI</t>
+  </si>
+  <si>
+    <t>MISO</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>SCK</t>
   </si>
 </sst>
 </file>
@@ -408,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AB10F6D-FF55-4B32-882C-D5EF54BBC961}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -421,9 +481,11 @@
     <col min="3" max="3" width="12.68359375" customWidth="1"/>
     <col min="4" max="4" width="14.47265625" customWidth="1"/>
     <col min="5" max="5" width="13.3671875" customWidth="1"/>
+    <col min="6" max="6" width="18.9453125" customWidth="1"/>
+    <col min="7" max="7" width="21.26171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -439,8 +501,14 @@
       <c r="E1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -450,153 +518,282 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C11">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C12">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C14">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C15">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="C16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C17">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C18">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C19">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C22">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C23">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C24">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C25">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C26">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C27">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C28">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C29">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C30">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C31">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C32">
         <v>31</v>
       </c>
@@ -692,6 +889,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100018A38D21C7F6D4A91B23F1E7ED59EAD" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="73fd976ce656d2742ef63e2728224b02">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="99f16acf-b87b-4b6a-b52f-ebb78be5f1a7" xmlns:ns4="193ea72a-de0b-4555-af8e-fb0a710bac36" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23e8330d3c1197d38e969f00a8f09fd8" ns3:_="" ns4:_="">
     <xsd:import namespace="99f16acf-b87b-4b6a-b52f-ebb78be5f1a7"/>
@@ -888,15 +1094,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -906,6 +1103,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB360C63-027C-42A7-900A-4013AE1174B9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92904724-6EA1-4C48-AB3F-DA2CD6D926D5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -920,14 +1125,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB360C63-027C-42A7-900A-4013AE1174B9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
